--- a/kenya_sut/Database/Shock_shading_update.xlsx
+++ b/kenya_sut/Database/Shock_shading_update.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272628DE-B5F8-4555-8EB0-6747EB8EBC9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10068" yWindow="3480" windowWidth="28800" windowHeight="12858" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Indeces" sheetId="8" r:id="rId5"/>
     <sheet name="main" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -849,7 +850,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0;\-;\-"/>
@@ -1423,23 +1424,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
-    <col min="2" max="2" width="22.15625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.15625" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1471,21 +1472,21 @@
         <v>-4.1739652547666804E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1494,22 +1495,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.05078125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.15625" style="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1529,18 +1530,18 @@
         <v>67.974060000000009</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
   </sheetData>
@@ -1548,7 +1549,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
@@ -1561,27 +1562,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
-    <col min="2" max="2" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.15625" style="1"/>
-    <col min="8" max="8" width="11.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.15625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -1712,7 +1713,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>7</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>7</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>7</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>8</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>9</v>
       </c>
@@ -1903,10 +1904,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 D2:D12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12 D2:D12" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1915,19 +1916,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
           <xm:sqref>E2 C12 C8:C10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
           <xm:sqref>C2 E3:E12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
             <xm:f>Indeces!$D$2:$D$13</xm:f>
           </x14:formula1>
@@ -1940,24 +1941,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.15625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.15625" style="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2049,18 +2050,18 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2069,13 +2070,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000002000000}">
           <x14:formula1>
             <xm:f>Indeces!$E$2:$E$9</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -2088,23 +2089,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.83984375" customWidth="1"/>
-    <col min="3" max="3" width="47.15625" customWidth="1"/>
-    <col min="4" max="4" width="22.734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2339,7 +2340,7 @@
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2361,7 +2362,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2416,7 +2417,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2427,7 +2428,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2438,7 +2439,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2449,7 +2450,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2570,7 +2571,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2701,7 +2702,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2725,87 +2726,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2816,30 +2817,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5234375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.15625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="186.41796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.578125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="186.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>176</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>182</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="13" t="s">
         <v>256</v>
@@ -2896,7 +2897,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="11" t="s">
         <v>184</v>
@@ -2913,7 +2914,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
       <c r="B5" s="11" t="s">
         <v>219</v>
@@ -2930,7 +2931,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="11" t="s">
         <v>220</v>
@@ -2945,7 +2946,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="11" t="s">
         <v>189</v>
@@ -2963,7 +2964,7 @@
       </c>
       <c r="H7" s="26"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="11" t="s">
         <v>247</v>
@@ -2983,7 +2984,7 @@
       </c>
       <c r="H8" s="26"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="11" t="s">
         <v>246</v>
@@ -3001,7 +3002,7 @@
       </c>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="11" t="s">
         <v>186</v>
@@ -3019,7 +3020,7 @@
       </c>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="11" t="s">
         <v>249</v>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="11" t="s">
         <v>194</v>
@@ -3051,7 +3052,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
       <c r="B13" s="11" t="s">
         <v>195</v>
@@ -3066,7 +3067,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
       <c r="B14" s="13" t="s">
         <v>183</v>
@@ -3081,7 +3082,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="13" t="s">
         <v>201</v>
@@ -3094,7 +3095,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="13" t="s">
         <v>260</v>
@@ -3111,7 +3112,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="13" t="s">
         <v>262</v>
@@ -3124,7 +3125,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="13" t="s">
         <v>265</v>
@@ -3139,7 +3140,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>185</v>
       </c>
@@ -3154,7 +3155,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="14" t="s">
         <v>190</v>
@@ -3172,7 +3173,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="14" t="s">
         <v>196</v>
@@ -3190,7 +3191,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="14" t="s">
         <v>197</v>
@@ -3208,7 +3209,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="14" t="s">
         <v>268</v>
@@ -3221,7 +3222,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>178</v>
       </c>
@@ -3239,7 +3240,7 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>229</v>
       </c>
@@ -3259,7 +3260,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="15" t="s">
         <v>263</v>
@@ -3279,7 +3280,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="15" t="s">
         <v>202</v>
@@ -3295,7 +3296,7 @@
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="15" t="s">
         <v>203</v>
@@ -3311,7 +3312,7 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="15" t="s">
         <v>203</v>
@@ -3325,7 +3326,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
         <v>230</v>
       </c>
@@ -3345,7 +3346,7 @@
       </c>
       <c r="G30" s="32"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" s="32" t="s">
         <v>263</v>
@@ -3363,7 +3364,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="46"/>
       <c r="B32" s="32" t="s">
         <v>231</v>
@@ -3380,7 +3381,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="46"/>
       <c r="B33" s="32" t="s">
         <v>232</v>
@@ -3398,7 +3399,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
         <v>264</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="32" t="s">
         <v>248</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="32" t="s">
         <v>266</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>259</v>
       </c>
@@ -3462,7 +3463,7 @@
     <mergeCell ref="A30:A33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/kenya_sut/Database/Shock_shading_update.xlsx
+++ b/kenya_sut/Database/Shock_shading_update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272628DE-B5F8-4555-8EB0-6747EB8EBC9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27463CB9-4E3B-4109-AF14-84782B8C5565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="269">
   <si>
     <t>level_row</t>
   </si>
@@ -727,9 +727,6 @@
     <t>Shade: A key factor for coffee sustainability and quality</t>
   </si>
   <si>
-    <t>Modeled (disaggregated)</t>
-  </si>
-  <si>
     <t>Modeled (aggregated)</t>
   </si>
   <si>
@@ -845,6 +842,9 @@
   </si>
   <si>
     <t>Reduction in Potassium fertilizer</t>
+  </si>
+  <si>
+    <t>Capital - Machines</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1002,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1050,9 +1050,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -1428,7 +1425,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,8 +1465,8 @@
         <v>7</v>
       </c>
       <c r="E2" s="2">
-        <f>main!C36</f>
-        <v>-4.1739652547666804E-4</v>
+        <f>main!C35</f>
+        <v>-6.1405266284913252E-6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1499,7 +1496,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,8 +1523,8 @@
         <v>51</v>
       </c>
       <c r="C2" s="5">
-        <f>main!C30</f>
-        <v>67.974060000000009</v>
+        <f>main!C29</f>
+        <v>0.99999999999999778</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1548,7 +1545,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
@@ -1566,7 +1563,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1603,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1625,15 +1622,15 @@
         <v>7</v>
       </c>
       <c r="G2" s="5">
-        <f>-main!C31</f>
-        <v>2.0000000000000001E-4</v>
+        <f>-main!C30</f>
+        <v>2.9422988710693394E-6</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1652,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="5">
-        <f>main!C32</f>
+        <f>main!C31</f>
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1660,7 +1657,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1687,7 +1684,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1705,7 +1702,7 @@
       <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1714,7 +1711,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1732,7 +1729,7 @@
       <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1741,7 +1738,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1759,7 +1756,7 @@
       <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1768,7 +1765,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1786,17 +1783,17 @@
       <c r="F8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="1">
-        <f>main!C27</f>
-        <v>-3.3391722038133433E-2</v>
+      <c r="G8" s="2">
+        <f>main!C26</f>
+        <v>-4.9124213027930593E-6</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>7</v>
+      <c r="A9" s="30">
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1813,17 +1810,17 @@
       <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="1">
-        <f>main!C28</f>
-        <v>-3.3391722038133433E-2</v>
+      <c r="G9" s="2">
+        <f>main!C27</f>
+        <v>-4.9124213027930593E-6</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>7</v>
+      <c r="A10" s="30">
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
@@ -1840,17 +1837,17 @@
       <c r="F10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="1">
-        <f>main!C29</f>
-        <v>-3.3391722038133446E-2</v>
+      <c r="G10" s="2">
+        <f>main!C28</f>
+        <v>-4.912421302793061E-6</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>8</v>
+      <c r="A11" s="30">
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -1867,7 +1864,7 @@
       <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <f>G3</f>
         <v>0</v>
       </c>
@@ -1876,8 +1873,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>9</v>
+      <c r="A12" s="30">
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -1894,9 +1891,9 @@
       <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="1">
-        <f>main!C35</f>
-        <v>-4.4520605187319887E-3</v>
+      <c r="G12" s="2">
+        <f>main!C34</f>
+        <v>-6.5496463190987543E-5</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>205</v>
@@ -1942,16 +1939,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
@@ -1983,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>14</v>
@@ -1995,8 +1992,8 @@
         <v>7</v>
       </c>
       <c r="F2" s="2">
-        <f>main!C33</f>
-        <v>-2.2539412375740077E-4</v>
+        <f>main!C32</f>
+        <v>-3.3158843793853162E-6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>207</v>
@@ -2007,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>14</v>
@@ -2019,49 +2016,25 @@
         <v>7</v>
       </c>
       <c r="F3" s="2">
-        <f>main!C34</f>
-        <v>3.1722135936226766E-4</v>
+        <f>main!C33</f>
+        <v>4.666800237653407E-6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2">
-        <f>F2</f>
-        <v>-2.2539412375740077E-4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2074,13 +2047,13 @@
           <x14:formula1>
             <xm:f>Indeces!$E$2:$E$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B4</xm:sqref>
+          <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D4</xm:sqref>
+          <xm:sqref>D2:D3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2116,10 +2089,10 @@
         <v>136</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2132,11 +2105,11 @@
       <c r="C2" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>241</v>
+      <c r="E2" s="36" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2149,11 +2122,11 @@
       <c r="C3" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>242</v>
+      <c r="E3" s="36" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2166,10 +2139,10 @@
       <c r="C4" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2183,11 +2156,11 @@
       <c r="C5" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>243</v>
+      <c r="E5" s="36" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2200,11 +2173,11 @@
       <c r="C6" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>244</v>
+      <c r="D6" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2217,10 +2190,10 @@
       <c r="C7" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2234,11 +2207,11 @@
       <c r="C8" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>245</v>
+      <c r="E8" s="36" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2251,10 +2224,10 @@
       <c r="C9" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2268,7 +2241,7 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2282,8 +2255,8 @@
       <c r="C11" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>237</v>
+      <c r="D11" s="37" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2296,8 +2269,8 @@
       <c r="C12" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>238</v>
+      <c r="D12" s="37" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2310,8 +2283,8 @@
       <c r="C13" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>239</v>
+      <c r="D13" s="37" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2335,10 +2308,10 @@
       <c r="C15" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2818,20 +2791,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2864,7 +2837,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -2881,16 +2854,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="21">
         <v>0.25</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="11" t="s">
@@ -2898,7 +2871,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="11" t="s">
         <v>184</v>
       </c>
@@ -2906,7 +2879,7 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
@@ -2915,7 +2888,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="11" t="s">
         <v>219</v>
       </c>
@@ -2932,7 +2905,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="11" t="s">
         <v>220</v>
       </c>
@@ -2941,13 +2914,13 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="11" t="s">
         <v>189</v>
       </c>
@@ -2959,51 +2932,51 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="21">
         <v>15</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H8" s="26"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" s="21">
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H9" s="26"/>
+      <c r="G9" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="11" t="s">
         <v>186</v>
       </c>
@@ -3021,9 +2994,9 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" s="21">
         <v>10410</v>
@@ -3038,7 +3011,7 @@
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="11" t="s">
         <v>194</v>
       </c>
@@ -3053,7 +3026,7 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="11" t="s">
         <v>195</v>
       </c>
@@ -3068,7 +3041,7 @@
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="13" t="s">
         <v>183</v>
       </c>
@@ -3083,7 +3056,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="13" t="s">
         <v>201</v>
       </c>
@@ -3096,16 +3069,16 @@
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C16" s="22">
         <v>-0.08</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
@@ -3113,9 +3086,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C17" s="22">
         <v>-0.02</v>
@@ -3126,9 +3099,9 @@
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C18" s="22">
         <v>0.5</v>
@@ -3137,18 +3110,18 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>185</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>173</v>
       </c>
       <c r="C19" s="20">
-        <v>0.01</v>
+        <v>1.4711494355346697E-4</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -3156,7 +3129,7 @@
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="14" t="s">
         <v>190</v>
       </c>
@@ -3174,7 +3147,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="14" t="s">
         <v>196</v>
       </c>
@@ -3192,7 +3165,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="14" t="s">
         <v>197</v>
       </c>
@@ -3210,9 +3183,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C23" s="20">
         <v>-0.4</v>
@@ -3223,7 +3196,7 @@
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>178</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -3241,53 +3214,49 @@
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
-        <v>229</v>
-      </c>
+      <c r="A25" s="44"/>
       <c r="B25" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25" s="25">
-        <f>C24</f>
-        <v>6797.4060000000009</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="15"/>
+        <v>262</v>
+      </c>
+      <c r="C25" s="23">
+        <f>C17*C19</f>
+        <v>-2.9422988710693394E-6</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
+        <v>249</v>
+      </c>
       <c r="F25" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" s="15"/>
+        <v>200</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C26" s="23">
-        <f>C17*C19</f>
-        <v>-2.0000000000000001E-4</v>
+        <v>202</v>
+      </c>
+      <c r="C26" s="27">
+        <f>C15*C21*C19</f>
+        <v>-4.9124213027930593E-6</v>
       </c>
       <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
-        <v>250</v>
-      </c>
+      <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>228</v>
-      </c>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" s="28">
-        <f>C15*C21</f>
-        <v>-3.3391722038133433E-2</v>
+        <v>203</v>
+      </c>
+      <c r="C27" s="27">
+        <f>C22*C15*C19</f>
+        <v>-4.9124213027930593E-6</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -3297,170 +3266,154 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C28" s="28">
-        <f>C22*C15</f>
-        <v>-3.3391722038133433E-2</v>
+      <c r="C28" s="27">
+        <f>C23*C15*C19</f>
+        <v>-4.912421302793061E-6</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="32">
+        <f>C24*C19</f>
+        <v>0.99999999999999778</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="33">
+        <f>C25</f>
+        <v>-2.9422988710693394E-6</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="28">
-        <f>C23*C15</f>
-        <v>-3.3391722038133446E-2</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="G30" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" s="33">
-        <f>C24*C19</f>
-        <v>67.974060000000009</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="32" t="s">
+      <c r="C31" s="35">
+        <v>0</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="34">
+        <f>-0.27*C15*C19</f>
+        <v>-3.3158843793853162E-6</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C31" s="34">
-        <f>C26</f>
-        <v>-2.0000000000000001E-4</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32" t="s">
+      <c r="C33" s="35">
+        <f>0.38*C15*C19</f>
+        <v>4.666800237653407E-6</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="35">
+        <f>-C10*C19/C11</f>
+        <v>-6.5496463190987543E-5</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="G31" s="32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32" s="35">
-        <v>0</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32" t="s">
+      <c r="G34" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" s="35">
+        <f>-C18*C19*C15</f>
+        <v>-6.1405266284913252E-6</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="G32" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="C33" s="35">
-        <f>-0.27*C15*C19</f>
-        <v>-2.2539412375740077E-4</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="36">
-        <f>0.38*C15*C19</f>
-        <v>3.1722135936226766E-4</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="C35" s="36">
-        <f>-C10*C19/C11</f>
-        <v>-4.4520605187319887E-3</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="C36" s="36">
-        <f>-C18*C19*C15</f>
-        <v>-4.1739652547666804E-4</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>259</v>
+      <c r="G35" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
